--- a/Analytics/B1/MultiBookings_b1.xlsx
+++ b/Analytics/B1/MultiBookings_b1.xlsx
@@ -70,52 +70,52 @@
     <t>16</t>
   </si>
   <si>
+    <t>Mechelen</t>
+  </si>
+  <si>
     <t>Oud-Heverlee Leuven</t>
   </si>
   <si>
+    <t>Club Brugge</t>
+  </si>
+  <si>
+    <t>Westerlo</t>
+  </si>
+  <si>
+    <t>St. Gilloise</t>
+  </si>
+  <si>
+    <t>Cercle Brugge</t>
+  </si>
+  <si>
+    <t>Genk</t>
+  </si>
+  <si>
+    <t>Gent</t>
+  </si>
+  <si>
     <t>Kortrijk</t>
   </si>
   <si>
-    <t>St. Gilloise</t>
-  </si>
-  <si>
-    <t>Genk</t>
-  </si>
-  <si>
-    <t>Westerlo</t>
+    <t>St Truiden</t>
   </si>
   <si>
     <t>Anderlecht</t>
   </si>
   <si>
-    <t>Gent</t>
-  </si>
-  <si>
     <t>Charleroi</t>
   </si>
   <si>
     <t>Antwerp</t>
   </si>
   <si>
-    <t>Cercle Brugge</t>
-  </si>
-  <si>
-    <t>Club Brugge</t>
-  </si>
-  <si>
-    <t>Eupen</t>
-  </si>
-  <si>
-    <t>Mechelen</t>
+    <t>Dender</t>
+  </si>
+  <si>
+    <t>Beerschot VA</t>
   </si>
   <si>
     <t>Standard</t>
-  </si>
-  <si>
-    <t>St Truiden</t>
-  </si>
-  <si>
-    <t>RWD Molenbeek</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -192,7 +192,7 @@
         <v>18</v>
       </c>
       <c r="C2" t="n">
-        <v>14000.0</v>
+        <v>5650.0</v>
       </c>
     </row>
     <row r="3">
@@ -203,7 +203,7 @@
         <v>19</v>
       </c>
       <c r="C3" t="n">
-        <v>8975.0</v>
+        <v>3650.0</v>
       </c>
     </row>
     <row r="4">
@@ -214,7 +214,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>8650.0</v>
+        <v>3400.0</v>
       </c>
     </row>
     <row r="5">
@@ -225,7 +225,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>8300.0</v>
+        <v>3400.0</v>
       </c>
     </row>
     <row r="6">
@@ -236,7 +236,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="n">
-        <v>7800.0</v>
+        <v>3200.0</v>
       </c>
     </row>
     <row r="7">
@@ -247,7 +247,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="n">
-        <v>7350.0</v>
+        <v>2900.0</v>
       </c>
     </row>
     <row r="8">
@@ -258,7 +258,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>6950.0</v>
+        <v>2700.0</v>
       </c>
     </row>
     <row r="9">
@@ -269,7 +269,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="n">
-        <v>6950.0</v>
+        <v>2500.0</v>
       </c>
     </row>
     <row r="10">
@@ -280,7 +280,7 @@
         <v>26</v>
       </c>
       <c r="C10" t="n">
-        <v>6900.0</v>
+        <v>2300.0</v>
       </c>
     </row>
     <row r="11">
@@ -291,7 +291,7 @@
         <v>27</v>
       </c>
       <c r="C11" t="n">
-        <v>6600.0</v>
+        <v>2250.0</v>
       </c>
     </row>
     <row r="12">
@@ -302,7 +302,7 @@
         <v>28</v>
       </c>
       <c r="C12" t="n">
-        <v>6350.0</v>
+        <v>2000.0</v>
       </c>
     </row>
     <row r="13">
@@ -313,7 +313,7 @@
         <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>5700.0</v>
+        <v>1900.0</v>
       </c>
     </row>
     <row r="14">
@@ -324,7 +324,7 @@
         <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>5500.0</v>
+        <v>1700.0</v>
       </c>
     </row>
     <row r="15">
@@ -335,7 +335,7 @@
         <v>31</v>
       </c>
       <c r="C15" t="n">
-        <v>4900.0</v>
+        <v>1600.0</v>
       </c>
     </row>
     <row r="16">
@@ -346,7 +346,7 @@
         <v>32</v>
       </c>
       <c r="C16" t="n">
-        <v>4400.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="17">
@@ -357,7 +357,7 @@
         <v>33</v>
       </c>
       <c r="C17" t="n">
-        <v>4100.0</v>
+        <v>1400.0</v>
       </c>
     </row>
   </sheetData>
@@ -387,10 +387,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>12300.0</v>
+        <v>6750.0</v>
       </c>
     </row>
     <row r="3">
@@ -398,10 +398,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C3" t="n">
-        <v>9350.0</v>
+        <v>4400.0</v>
       </c>
     </row>
     <row r="4">
@@ -409,10 +409,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" t="n">
-        <v>8900.0</v>
+        <v>3350.0</v>
       </c>
     </row>
     <row r="5">
@@ -420,10 +420,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
-        <v>8750.0</v>
+        <v>3300.0</v>
       </c>
     </row>
     <row r="6">
@@ -431,10 +431,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>8125.0</v>
+        <v>3100.0</v>
       </c>
     </row>
     <row r="7">
@@ -442,10 +442,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C7" t="n">
-        <v>8050.0</v>
+        <v>3100.0</v>
       </c>
     </row>
     <row r="8">
@@ -453,10 +453,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C8" t="n">
-        <v>7800.0</v>
+        <v>2800.0</v>
       </c>
     </row>
     <row r="9">
@@ -464,10 +464,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C9" t="n">
-        <v>7750.0</v>
+        <v>2700.0</v>
       </c>
     </row>
     <row r="10">
@@ -475,10 +475,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>7600.0</v>
+        <v>2400.0</v>
       </c>
     </row>
     <row r="11">
@@ -486,10 +486,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C11" t="n">
-        <v>7600.0</v>
+        <v>1900.0</v>
       </c>
     </row>
     <row r="12">
@@ -497,10 +497,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>6450.0</v>
+        <v>1600.0</v>
       </c>
     </row>
     <row r="13">
@@ -508,10 +508,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C13" t="n">
-        <v>5000.0</v>
+        <v>1600.0</v>
       </c>
     </row>
     <row r="14">
@@ -519,10 +519,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C14" t="n">
-        <v>4950.0</v>
+        <v>1600.0</v>
       </c>
     </row>
     <row r="15">
@@ -530,10 +530,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C15" t="n">
-        <v>3800.0</v>
+        <v>1450.0</v>
       </c>
     </row>
     <row r="16">
@@ -541,10 +541,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C16" t="n">
-        <v>3600.0</v>
+        <v>1400.0</v>
       </c>
     </row>
     <row r="17">
@@ -552,10 +552,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C17" t="n">
-        <v>3400.0</v>
+        <v>600.0</v>
       </c>
     </row>
   </sheetData>
@@ -588,13 +588,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>20450.0</v>
+        <v>9950.0</v>
       </c>
       <c r="D2" t="n">
-        <v>681.6666666666666</v>
+        <v>331.6666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -602,13 +602,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>19650.0</v>
+        <v>7250.0</v>
       </c>
       <c r="D3" t="n">
-        <v>655.0</v>
+        <v>241.66666666666666</v>
       </c>
     </row>
     <row r="4">
@@ -616,13 +616,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="n">
-        <v>18000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="D4" t="n">
-        <v>600.0</v>
+        <v>233.33333333333334</v>
       </c>
     </row>
     <row r="5">
@@ -630,13 +630,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>17200.0</v>
+        <v>6900.0</v>
       </c>
       <c r="D5" t="n">
-        <v>573.3333333333334</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="6">
@@ -644,13 +644,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>16550.0</v>
+        <v>6200.0</v>
       </c>
       <c r="D6" t="n">
-        <v>551.6666666666666</v>
+        <v>206.66666666666666</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>15000.0</v>
+        <v>5800.0</v>
       </c>
       <c r="D7" t="n">
-        <v>500.0</v>
+        <v>193.33333333333334</v>
       </c>
     </row>
     <row r="8">
@@ -675,10 +675,10 @@
         <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>14500.0</v>
+        <v>5600.0</v>
       </c>
       <c r="D8" t="n">
-        <v>483.3333333333333</v>
+        <v>186.66666666666666</v>
       </c>
     </row>
     <row r="9">
@@ -686,13 +686,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>14200.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D9" t="n">
-        <v>473.3333333333333</v>
+        <v>166.66666666666666</v>
       </c>
     </row>
     <row r="10">
@@ -700,13 +700,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>14150.0</v>
+        <v>4800.0</v>
       </c>
       <c r="D10" t="n">
-        <v>471.6666666666667</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="11">
@@ -714,13 +714,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C11" t="n">
-        <v>13825.0</v>
+        <v>4600.0</v>
       </c>
       <c r="D11" t="n">
-        <v>460.8333333333333</v>
+        <v>153.33333333333334</v>
       </c>
     </row>
     <row r="12">
@@ -728,13 +728,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C12" t="n">
-        <v>12650.0</v>
+        <v>4350.0</v>
       </c>
       <c r="D12" t="n">
-        <v>421.6666666666667</v>
+        <v>145.0</v>
       </c>
     </row>
     <row r="13">
@@ -742,13 +742,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>12575.0</v>
+        <v>4100.0</v>
       </c>
       <c r="D13" t="n">
-        <v>419.1666666666667</v>
+        <v>136.66666666666666</v>
       </c>
     </row>
     <row r="14">
@@ -756,13 +756,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14" t="n">
-        <v>10350.0</v>
+        <v>3650.0</v>
       </c>
       <c r="D14" t="n">
-        <v>345.0</v>
+        <v>121.66666666666667</v>
       </c>
     </row>
     <row r="15">
@@ -770,13 +770,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C15" t="n">
-        <v>9400.0</v>
+        <v>3600.0</v>
       </c>
       <c r="D15" t="n">
-        <v>313.3333333333333</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16" t="n">
-        <v>9300.0</v>
+        <v>3100.0</v>
       </c>
       <c r="D16" t="n">
-        <v>310.0</v>
+        <v>103.33333333333333</v>
       </c>
     </row>
     <row r="17">
@@ -798,13 +798,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" t="n">
-        <v>9050.0</v>
+        <v>2200.0</v>
       </c>
       <c r="D17" t="n">
-        <v>301.6666666666667</v>
+        <v>73.33333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/B1/MultiBookings_b1.xlsx
+++ b/Analytics/B1/MultiBookings_b1.xlsx
@@ -70,52 +70,52 @@
     <t>16</t>
   </si>
   <si>
+    <t>St. Gilloise</t>
+  </si>
+  <si>
     <t>Mechelen</t>
   </si>
   <si>
     <t>Oud-Heverlee Leuven</t>
   </si>
   <si>
+    <t>Anderlecht</t>
+  </si>
+  <si>
+    <t>Cercle Brugge</t>
+  </si>
+  <si>
+    <t>Gent</t>
+  </si>
+  <si>
     <t>Club Brugge</t>
   </si>
   <si>
+    <t>Genk</t>
+  </si>
+  <si>
     <t>Westerlo</t>
   </si>
   <si>
-    <t>St. Gilloise</t>
-  </si>
-  <si>
-    <t>Cercle Brugge</t>
-  </si>
-  <si>
-    <t>Genk</t>
-  </si>
-  <si>
-    <t>Gent</t>
+    <t>Dender</t>
+  </si>
+  <si>
+    <t>Beerschot VA</t>
+  </si>
+  <si>
+    <t>Antwerp</t>
+  </si>
+  <si>
+    <t>St Truiden</t>
   </si>
   <si>
     <t>Kortrijk</t>
   </si>
   <si>
-    <t>St Truiden</t>
-  </si>
-  <si>
-    <t>Anderlecht</t>
+    <t>Standard</t>
   </si>
   <si>
     <t>Charleroi</t>
-  </si>
-  <si>
-    <t>Antwerp</t>
-  </si>
-  <si>
-    <t>Dender</t>
-  </si>
-  <si>
-    <t>Beerschot VA</t>
-  </si>
-  <si>
-    <t>Standard</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -192,7 +192,7 @@
         <v>18</v>
       </c>
       <c r="C2" t="n">
-        <v>5650.0</v>
+        <v>6100.0</v>
       </c>
     </row>
     <row r="3">
@@ -203,7 +203,7 @@
         <v>19</v>
       </c>
       <c r="C3" t="n">
-        <v>3650.0</v>
+        <v>6050.0</v>
       </c>
     </row>
     <row r="4">
@@ -214,7 +214,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>3400.0</v>
+        <v>5500.0</v>
       </c>
     </row>
     <row r="5">
@@ -225,7 +225,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>3400.0</v>
+        <v>4550.0</v>
       </c>
     </row>
     <row r="6">
@@ -236,7 +236,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="n">
-        <v>3200.0</v>
+        <v>4550.0</v>
       </c>
     </row>
     <row r="7">
@@ -247,7 +247,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="n">
-        <v>2900.0</v>
+        <v>4100.0</v>
       </c>
     </row>
     <row r="8">
@@ -258,7 +258,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>2700.0</v>
+        <v>3950.0</v>
       </c>
     </row>
     <row r="9">
@@ -269,7 +269,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="n">
-        <v>2500.0</v>
+        <v>3900.0</v>
       </c>
     </row>
     <row r="10">
@@ -280,7 +280,7 @@
         <v>26</v>
       </c>
       <c r="C10" t="n">
-        <v>2300.0</v>
+        <v>3400.0</v>
       </c>
     </row>
     <row r="11">
@@ -291,7 +291,7 @@
         <v>27</v>
       </c>
       <c r="C11" t="n">
-        <v>2250.0</v>
+        <v>3200.0</v>
       </c>
     </row>
     <row r="12">
@@ -302,7 +302,7 @@
         <v>28</v>
       </c>
       <c r="C12" t="n">
-        <v>2000.0</v>
+        <v>3100.0</v>
       </c>
     </row>
     <row r="13">
@@ -313,7 +313,7 @@
         <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>1900.0</v>
+        <v>2900.0</v>
       </c>
     </row>
     <row r="14">
@@ -324,7 +324,7 @@
         <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>1700.0</v>
+        <v>2750.0</v>
       </c>
     </row>
     <row r="15">
@@ -335,7 +335,7 @@
         <v>31</v>
       </c>
       <c r="C15" t="n">
-        <v>1600.0</v>
+        <v>2700.0</v>
       </c>
     </row>
     <row r="16">
@@ -346,7 +346,7 @@
         <v>32</v>
       </c>
       <c r="C16" t="n">
-        <v>1500.0</v>
+        <v>2200.0</v>
       </c>
     </row>
     <row r="17">
@@ -357,7 +357,7 @@
         <v>33</v>
       </c>
       <c r="C17" t="n">
-        <v>1400.0</v>
+        <v>2200.0</v>
       </c>
     </row>
   </sheetData>
@@ -387,10 +387,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C2" t="n">
-        <v>6750.0</v>
+        <v>8950.0</v>
       </c>
     </row>
     <row r="3">
@@ -398,10 +398,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>4400.0</v>
+        <v>5750.0</v>
       </c>
     </row>
     <row r="4">
@@ -409,10 +409,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
-        <v>3350.0</v>
+        <v>5450.0</v>
       </c>
     </row>
     <row r="5">
@@ -420,10 +420,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C5" t="n">
-        <v>3300.0</v>
+        <v>5200.0</v>
       </c>
     </row>
     <row r="6">
@@ -431,10 +431,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="n">
-        <v>3100.0</v>
+        <v>4500.0</v>
       </c>
     </row>
     <row r="7">
@@ -442,10 +442,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C7" t="n">
-        <v>3100.0</v>
+        <v>4050.0</v>
       </c>
     </row>
     <row r="8">
@@ -453,10 +453,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>2800.0</v>
+        <v>3700.0</v>
       </c>
     </row>
     <row r="9">
@@ -464,10 +464,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C9" t="n">
-        <v>2700.0</v>
+        <v>3500.0</v>
       </c>
     </row>
     <row r="10">
@@ -475,10 +475,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>2400.0</v>
+        <v>3250.0</v>
       </c>
     </row>
     <row r="11">
@@ -486,10 +486,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C11" t="n">
-        <v>1900.0</v>
+        <v>3000.0</v>
       </c>
     </row>
     <row r="12">
@@ -497,10 +497,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C12" t="n">
-        <v>1600.0</v>
+        <v>2800.0</v>
       </c>
     </row>
     <row r="13">
@@ -508,10 +508,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C13" t="n">
-        <v>1600.0</v>
+        <v>2550.0</v>
       </c>
     </row>
     <row r="14">
@@ -519,10 +519,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C14" t="n">
-        <v>1600.0</v>
+        <v>2400.0</v>
       </c>
     </row>
     <row r="15">
@@ -530,10 +530,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" t="n">
-        <v>1450.0</v>
+        <v>2350.0</v>
       </c>
     </row>
     <row r="16">
@@ -541,10 +541,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C16" t="n">
-        <v>1400.0</v>
+        <v>1900.0</v>
       </c>
     </row>
     <row r="17">
@@ -552,10 +552,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C17" t="n">
-        <v>600.0</v>
+        <v>1800.0</v>
       </c>
     </row>
   </sheetData>
@@ -588,13 +588,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C2" t="n">
-        <v>9950.0</v>
+        <v>15050.0</v>
       </c>
       <c r="D2" t="n">
-        <v>331.6666666666667</v>
+        <v>501.6666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -602,13 +602,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>7250.0</v>
+        <v>11250.0</v>
       </c>
       <c r="D3" t="n">
-        <v>241.66666666666666</v>
+        <v>375.0</v>
       </c>
     </row>
     <row r="4">
@@ -616,13 +616,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
-        <v>7000.0</v>
+        <v>9550.0</v>
       </c>
       <c r="D4" t="n">
-        <v>233.33333333333334</v>
+        <v>318.3333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -630,13 +630,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C5" t="n">
-        <v>6900.0</v>
+        <v>8100.0</v>
       </c>
       <c r="D5" t="n">
-        <v>230.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="6">
@@ -644,13 +644,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>6200.0</v>
+        <v>7950.0</v>
       </c>
       <c r="D6" t="n">
-        <v>206.66666666666666</v>
+        <v>265.0</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C7" t="n">
-        <v>5800.0</v>
+        <v>7200.0</v>
       </c>
       <c r="D7" t="n">
-        <v>193.33333333333334</v>
+        <v>240.0</v>
       </c>
     </row>
     <row r="8">
@@ -672,13 +672,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
-        <v>5600.0</v>
+        <v>7100.0</v>
       </c>
       <c r="D8" t="n">
-        <v>186.66666666666666</v>
+        <v>236.66666666666666</v>
       </c>
     </row>
     <row r="9">
@@ -686,13 +686,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
-        <v>5000.0</v>
+        <v>7100.0</v>
       </c>
       <c r="D9" t="n">
-        <v>166.66666666666666</v>
+        <v>236.66666666666666</v>
       </c>
     </row>
     <row r="10">
@@ -700,13 +700,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C10" t="n">
-        <v>4800.0</v>
+        <v>6900.0</v>
       </c>
       <c r="D10" t="n">
-        <v>160.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="11">
@@ -717,10 +717,10 @@
         <v>24</v>
       </c>
       <c r="C11" t="n">
-        <v>4600.0</v>
+        <v>6750.0</v>
       </c>
       <c r="D11" t="n">
-        <v>153.33333333333334</v>
+        <v>225.0</v>
       </c>
     </row>
     <row r="12">
@@ -728,13 +728,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C12" t="n">
-        <v>4350.0</v>
+        <v>6600.0</v>
       </c>
       <c r="D12" t="n">
-        <v>145.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="13">
@@ -742,13 +742,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C13" t="n">
-        <v>4100.0</v>
+        <v>6300.0</v>
       </c>
       <c r="D13" t="n">
-        <v>136.66666666666666</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="14">
@@ -756,13 +756,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C14" t="n">
-        <v>3650.0</v>
+        <v>6250.0</v>
       </c>
       <c r="D14" t="n">
-        <v>121.66666666666667</v>
+        <v>208.33333333333334</v>
       </c>
     </row>
     <row r="15">
@@ -770,13 +770,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C15" t="n">
-        <v>3600.0</v>
+        <v>6000.0</v>
       </c>
       <c r="D15" t="n">
-        <v>120.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="16">
@@ -787,10 +787,10 @@
         <v>32</v>
       </c>
       <c r="C16" t="n">
-        <v>3100.0</v>
+        <v>5200.0</v>
       </c>
       <c r="D16" t="n">
-        <v>103.33333333333333</v>
+        <v>173.33333333333334</v>
       </c>
     </row>
     <row r="17">
@@ -798,13 +798,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C17" t="n">
-        <v>2200.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D17" t="n">
-        <v>73.33333333333333</v>
+        <v>166.66666666666666</v>
       </c>
     </row>
   </sheetData>
